--- a/reports/_HAPAG LIOYD AG_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_11_.xlsx
+++ b/reports/_HAPAG LIOYD AG_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_11_.xlsx
@@ -105,7 +105,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -130,7 +130,7 @@
     <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="25.08988764044944"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="34.98988764044944"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -161,7 +161,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of containers : 3</t>
+          <t>Total number of containers : 4</t>
         </is>
       </c>
     </row>
@@ -636,6 +636,162 @@
         </is>
       </c>
       <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>846</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>UACU5363691</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>ISATL</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>ISATL</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>GBX</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>HLG</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>TR ARAMIS V 016N</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>2018/3965</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="d">
+        <v>2018-12-26T12:47:02</v>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-()</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>Floor board-()</t>
+        </is>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>floor board dirty </t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-()</t>
+        </is>
+      </c>
+      <c r="T11" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-()</t>
+        </is>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
+        <is>
+          <t>both door is jam &amp; not lock</t>
+        </is>
+      </c>
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -797,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -809,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2822,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB272"/>
+  <dimension ref="A1:AB274"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -2726,7 +2882,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of containers : 172</t>
+          <t>Total number of containers : 173</t>
         </is>
       </c>
     </row>
@@ -22105,17 +22261,17 @@
       </c>
       <c r="W207" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-()</t>
+          <t>DOORS-()</t>
         </is>
       </c>
       <c r="X207" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-()</t>
+          <t>Door stiffeners hinges side edge.-()</t>
         </is>
       </c>
       <c r="Y207" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>R/S DOOR HARD FITTING &amp; NOT LOCKED</t>
         </is>
       </c>
       <c r="Z207" s="0" t="inlineStr">
@@ -22163,17 +22319,17 @@
       <c r="V208" s="0"/>
       <c r="W208" s="0" t="inlineStr">
         <is>
-          <t>DOORS-()</t>
+          <t>FLOORS-()</t>
         </is>
       </c>
       <c r="X208" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-()</t>
+          <t>Threshold plate-()</t>
         </is>
       </c>
       <c r="Y208" s="0" t="inlineStr">
         <is>
-          <t>R/S DOOR HARD FITTING &amp; NOT LOCKED</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Z208" s="0" t="inlineStr">
@@ -25677,17 +25833,17 @@
       <c r="V244" s="0"/>
       <c r="W244" s="0" t="inlineStr">
         <is>
-          <t>RAILS-()</t>
+          <t>DOORS-()</t>
         </is>
       </c>
       <c r="X244" s="0" t="inlineStr">
         <is>
-          <t>Rear top rail cam keeper-()</t>
+          <t>Door stiffeners hinges side edge.-()</t>
         </is>
       </c>
       <c r="Y244" s="0" t="inlineStr">
         <is>
-          <t>FRONT TOP RAIL BENT 20"X6"</t>
+          <t>RIGHT DOOR MIDDLE GASKET TORN 10"</t>
         </is>
       </c>
       <c r="Z244" s="0" t="inlineStr">
@@ -25735,17 +25891,17 @@
       <c r="V245" s="0"/>
       <c r="W245" s="0" t="inlineStr">
         <is>
-          <t>DOORS-()</t>
+          <t>RAILS-()</t>
         </is>
       </c>
       <c r="X245" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-()</t>
+          <t>Rear top rail cam keeper-()</t>
         </is>
       </c>
       <c r="Y245" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR MIDDLE GASKET TORN 10"</t>
+          <t>FRONT TOP RAIL BENT 20"X6"</t>
         </is>
       </c>
       <c r="Z245" s="0" t="inlineStr">
@@ -28137,6 +28293,178 @@
         </is>
       </c>
       <c r="AB272" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>846</v>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>UACU5363691</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E273" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>GBX</t>
+        </is>
+      </c>
+      <c r="G273" s="0" t="inlineStr">
+        <is>
+          <t>HLG</t>
+        </is>
+      </c>
+      <c r="H273" s="0" t="inlineStr">
+        <is>
+          <t>ISATL</t>
+        </is>
+      </c>
+      <c r="I273" s="0" t="inlineStr">
+        <is>
+          <t>ISATL</t>
+        </is>
+      </c>
+      <c r="J273" s="0" t="inlineStr">
+        <is>
+          <t>TR ARAMIS V 016N</t>
+        </is>
+      </c>
+      <c r="K273" s="0" t="inlineStr">
+        <is>
+          <t>2018/3965</t>
+        </is>
+      </c>
+      <c r="L273" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="M273" s="4" t="d">
+        <v>2018-12-26T12:47:02</v>
+      </c>
+      <c r="N273" s="0" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="O273" s="0"/>
+      <c r="P273" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="S273" s="0"/>
+      <c r="T273" s="0"/>
+      <c r="U273" s="4"/>
+      <c r="V273" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W273" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-()</t>
+        </is>
+      </c>
+      <c r="X273" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-()</t>
+        </is>
+      </c>
+      <c r="Y273" s="0" t="inlineStr">
+        <is>
+          <t>both door is jam &amp; not lock</t>
+        </is>
+      </c>
+      <c r="Z273" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA273" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB273" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B274" s="0"/>
+      <c r="C274" s="0"/>
+      <c r="D274" s="0"/>
+      <c r="E274" s="0"/>
+      <c r="F274" s="0"/>
+      <c r="G274" s="0"/>
+      <c r="H274" s="0"/>
+      <c r="I274" s="0"/>
+      <c r="J274" s="0"/>
+      <c r="K274" s="0"/>
+      <c r="L274" s="0"/>
+      <c r="M274" s="4"/>
+      <c r="N274" s="0"/>
+      <c r="O274" s="0"/>
+      <c r="P274" s="0"/>
+      <c r="Q274" s="0"/>
+      <c r="R274" s="0"/>
+      <c r="S274" s="0"/>
+      <c r="T274" s="0"/>
+      <c r="U274" s="4"/>
+      <c r="V274" s="0"/>
+      <c r="W274" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-()</t>
+        </is>
+      </c>
+      <c r="X274" s="0" t="inlineStr">
+        <is>
+          <t>Floor board-()</t>
+        </is>
+      </c>
+      <c r="Y274" s="0" t="inlineStr">
+        <is>
+          <t>floor board dirty </t>
+        </is>
+      </c>
+      <c r="Z274" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA274" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB274" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -28342,7 +28670,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>46</v>
@@ -28354,10 +28682,10 @@
         <v>58</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
